--- a/document/白玉琪《web3实战开发》大纲-2011-12-5 - 教学修改-1.xlsx
+++ b/document/白玉琪《web3实战开发》大纲-2011-12-5 - 教学修改-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java-enterprise-course\course-space\course-all\course-solidity-teacher\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DCD9F5-0068-4D73-8FAE-4C64777E90FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E331B8A-454D-4952-89D9-DE75A1E0363F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>课程标题</t>
   </si>
@@ -386,21 +386,6 @@
     <t>实战项目-扩展开发</t>
   </si>
   <si>
-    <t>搜索功能分析</t>
-  </si>
-  <si>
-    <t>实战搜索功能实现</t>
-  </si>
-  <si>
-    <t>历史回顾-web3应用的演进路径</t>
-  </si>
-  <si>
-    <t>opensae体系结构与集成方法分析</t>
-  </si>
-  <si>
-    <t>实战集成实现</t>
-  </si>
-  <si>
     <t xml:space="preserve">课程总结 </t>
   </si>
   <si>
@@ -444,15 +429,6 @@
   </si>
   <si>
     <t>手把手：环境、工具与项目创建</t>
-  </si>
-  <si>
-    <t>Arconnect钱包使用</t>
-  </si>
-  <si>
-    <t>Arweave简介与环境搭建</t>
-  </si>
-  <si>
-    <t>NFT存储功能用Arweave实现</t>
   </si>
   <si>
     <t>本章探讨web3开发中的进化论，中心化与去中心化的结合问题，并初步实现一个数据库搜索功能；通过另一种去中心化存储Arweave实现NFT；放开视野，了解web3生态，以opensea为例探讨应用应用合成的无限可能空间</t>
@@ -497,29 +473,59 @@
     <t>内容发布功能开发</t>
   </si>
   <si>
-    <t>社区平台收费功能与治理体系</t>
-  </si>
-  <si>
-    <t>如何实现项目与opensea的集成-royalty</t>
-  </si>
-  <si>
-    <t>内容发布功能设计</t>
-  </si>
-  <si>
-    <t>存储功能用Arweave实现</t>
-  </si>
-  <si>
-    <t>内容发布功能实现</t>
-  </si>
-  <si>
-    <t>creator coin拍卖功能初探</t>
+    <t>Social Finance与内容发布</t>
+  </si>
+  <si>
+    <t>设计原则问题</t>
+  </si>
+  <si>
+    <t>UI与功能设计</t>
+  </si>
+  <si>
+    <t>技术要求</t>
+  </si>
+  <si>
+    <t>功能开发</t>
+  </si>
+  <si>
+    <t>Arweave存储扩展开发</t>
+  </si>
+  <si>
+    <t>Arweave存储技术</t>
+  </si>
+  <si>
+    <t>Arweave环境搭建</t>
+  </si>
+  <si>
+    <t>Arweave技术测试开发</t>
+  </si>
+  <si>
+    <t>Arweave存储功能开发</t>
+  </si>
+  <si>
+    <t>经济学设计概论</t>
+  </si>
+  <si>
+    <t>Opensea集成与版税合约扩展</t>
+  </si>
+  <si>
+    <t>平台收费与社区治理问题</t>
+  </si>
+  <si>
+    <t>ArtistCoin与创作者社区</t>
+  </si>
+  <si>
+    <t>草稿功能-兼论web2与web3的关系</t>
+  </si>
+  <si>
+    <t>web3的经济学设计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -674,6 +680,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -927,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,173 +1029,53 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1209,38 +1102,161 @@
     <xf numFmtId="49" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1602,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1621,222 +1637,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="86"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="86"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="84.75" customHeight="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="86"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="55.5" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="86"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="59.25" customHeight="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="86"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="102.75" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="86"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="86"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="86"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="86"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="86"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1849,10 +1865,10 @@
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1866,21 +1882,21 @@
         <v>25</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="22.05" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="82">
         <v>1</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1888,8 +1904,8 @@
         <v>5</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="96" t="s">
-        <v>128</v>
+      <c r="H15" s="56" t="s">
+        <v>120</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12"/>
@@ -1897,12 +1913,12 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="93" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1910,19 +1926,19 @@
         <v>5</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="96"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1930,28 +1946,28 @@
         <v>10</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="96"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
-      <c r="A18" s="103">
+      <c r="A18" s="38">
         <v>2</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="100" t="s">
-        <v>132</v>
+      <c r="H18" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -1959,66 +1975,66 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="85" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>20</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="101"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="85" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>25</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="101"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="63"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="60"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
         <v>5</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="101"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="71" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2026,19 +2042,19 @@
         <v>5</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="101"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1">
-      <c r="A23" s="103"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="72" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2046,19 +2062,19 @@
         <v>15</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="101"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1">
-      <c r="A24" s="103"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="65" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2066,19 +2082,19 @@
         <v>20</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="101"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="21" customHeight="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="65" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2086,19 +2102,19 @@
         <v>5</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="101"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="65" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2106,19 +2122,19 @@
         <v>10</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="101"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="66"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="57"/>
       <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2126,19 +2142,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="101"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" ht="21" customHeight="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="66"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="57"/>
       <c r="E28" s="3" t="s">
         <v>28</v>
       </c>
@@ -2146,19 +2162,19 @@
         <v>5</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="101"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="21" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="66"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="57"/>
       <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2166,19 +2182,19 @@
         <v>20</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="101"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="103"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="66"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="57"/>
       <c r="E30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2186,19 +2202,19 @@
         <v>20</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="101"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
-      <c r="A31" s="103"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="66"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="57"/>
       <c r="E31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2206,19 +2222,19 @@
         <v>10</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="101"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="65" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="66"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2226,19 +2242,19 @@
         <v>15</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="101"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="83"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="68"/>
       <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2246,19 +2262,19 @@
         <v>20</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="101"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="79"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="63"/>
       <c r="E34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2266,19 +2282,19 @@
         <v>5</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="103"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="80" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="81"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="3" t="s">
         <v>28</v>
       </c>
@@ -2286,19 +2302,19 @@
         <v>10</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="101"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="11"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="63"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="60"/>
       <c r="E36" s="3" t="s">
         <v>28</v>
       </c>
@@ -2306,19 +2322,19 @@
         <v>10</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="101"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="62" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2326,19 +2342,19 @@
         <v>15</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="101"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="103"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="62" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="3" t="s">
         <v>28</v>
       </c>
@@ -2346,19 +2362,19 @@
         <v>15</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="101"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="65" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2366,23 +2382,23 @@
         <v>5</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="102"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="11"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" ht="21" customHeight="1">
-      <c r="A40" s="48">
+      <c r="A40" s="82">
         <v>3</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="99" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="11"/>
@@ -2399,12 +2415,12 @@
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" ht="21" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="65" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="3" t="s">
         <v>28</v>
       </c>
@@ -2412,19 +2428,19 @@
         <v>10</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="33"/>
+      <c r="H41" s="100"/>
       <c r="I41" s="11"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" ht="21" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="3" t="s">
         <v>28</v>
       </c>
@@ -2432,19 +2448,19 @@
         <v>15</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="33"/>
+      <c r="H42" s="100"/>
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" ht="21" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="3" t="s">
         <v>28</v>
       </c>
@@ -2452,19 +2468,19 @@
         <v>10</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="33"/>
+      <c r="H43" s="100"/>
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" ht="21" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="65"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="3" t="s">
         <v>28</v>
       </c>
@@ -2472,19 +2488,19 @@
         <v>20</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="100"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" ht="21" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="76" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="3" t="s">
         <v>28</v>
       </c>
@@ -2492,19 +2508,19 @@
         <v>5</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="33"/>
+      <c r="H45" s="100"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" ht="21" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="65" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="65"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="3" t="s">
         <v>28</v>
       </c>
@@ -2512,19 +2528,19 @@
         <v>10</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="33"/>
+      <c r="H46" s="100"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="21" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="66"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="3" t="s">
         <v>28</v>
       </c>
@@ -2532,19 +2548,19 @@
         <v>30</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="33"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" ht="21" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="3" t="s">
         <v>28</v>
       </c>
@@ -2552,19 +2568,19 @@
         <v>15</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="33"/>
+      <c r="H48" s="100"/>
       <c r="I48" s="11"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" ht="21" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="71" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="3" t="s">
         <v>28</v>
       </c>
@@ -2572,19 +2588,19 @@
         <v>5</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="33"/>
+      <c r="H49" s="100"/>
       <c r="I49" s="11"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" ht="21" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="65" t="s">
+      <c r="A50" s="83"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="3" t="s">
         <v>28</v>
       </c>
@@ -2592,19 +2608,19 @@
         <v>20</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="100"/>
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" ht="21" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="3" t="s">
         <v>28</v>
       </c>
@@ -2612,19 +2628,19 @@
         <v>20</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="100"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" ht="21" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="74" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="75"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="3" t="s">
         <v>28</v>
       </c>
@@ -2632,19 +2648,19 @@
         <v>15</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="100"/>
       <c r="I52" s="11"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="21" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="65" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="66"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="3" t="s">
         <v>28</v>
       </c>
@@ -2652,23 +2668,23 @@
         <v>5</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="34"/>
+      <c r="H53" s="101"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" ht="21" customHeight="1">
-      <c r="A54" s="48">
+      <c r="A54" s="82">
         <v>4</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="65"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2676,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="99" t="s">
         <v>62</v>
       </c>
       <c r="I54" s="11"/>
@@ -2685,12 +2701,12 @@
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" ht="21" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="65"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="46"/>
       <c r="E55" s="3" t="s">
         <v>28</v>
       </c>
@@ -2698,19 +2714,19 @@
         <v>25</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="33"/>
+      <c r="H55" s="100"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" ht="21" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="66"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="3" t="s">
         <v>28</v>
       </c>
@@ -2718,19 +2734,19 @@
         <v>30</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="33"/>
+      <c r="H56" s="100"/>
       <c r="I56" s="11"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" ht="21" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="65"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="46"/>
       <c r="E57" s="3" t="s">
         <v>28</v>
       </c>
@@ -2738,19 +2754,19 @@
         <v>5</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="33"/>
+      <c r="H57" s="100"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" ht="21" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="65" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="3" t="s">
         <v>28</v>
       </c>
@@ -2758,19 +2774,19 @@
         <v>10</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="33"/>
+      <c r="H58" s="100"/>
       <c r="I58" s="11"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" ht="21" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="65" t="s">
+      <c r="A59" s="83"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="3" t="s">
         <v>28</v>
       </c>
@@ -2778,19 +2794,19 @@
         <v>15</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="33"/>
+      <c r="H59" s="100"/>
       <c r="I59" s="11"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="21" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="65" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="3" t="s">
         <v>28</v>
       </c>
@@ -2798,19 +2814,19 @@
         <v>15</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="33"/>
+      <c r="H60" s="100"/>
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" ht="21" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="65" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="66"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="3" t="s">
         <v>28</v>
       </c>
@@ -2818,19 +2834,19 @@
         <v>15</v>
       </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="33"/>
+      <c r="H61" s="100"/>
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" ht="21" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="71" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="66"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="3" t="s">
         <v>28</v>
       </c>
@@ -2838,19 +2854,19 @@
         <v>5</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="33"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="11"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" ht="21" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="66"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="3" t="s">
         <v>28</v>
       </c>
@@ -2858,19 +2874,19 @@
         <v>5</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="33"/>
+      <c r="H63" s="100"/>
       <c r="I63" s="11"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" ht="21" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="66"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="3" t="s">
         <v>28</v>
       </c>
@@ -2878,19 +2894,19 @@
         <v>10</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="33"/>
+      <c r="H64" s="100"/>
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" ht="21" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="65" t="s">
+      <c r="A65" s="83"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="66"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="3" t="s">
         <v>28</v>
       </c>
@@ -2898,19 +2914,19 @@
         <v>30</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="33"/>
+      <c r="H65" s="100"/>
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" ht="21" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="65" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="66"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="3" t="s">
         <v>28</v>
       </c>
@@ -2918,19 +2934,19 @@
         <v>10</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="33"/>
+      <c r="H66" s="100"/>
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" ht="21" customHeight="1">
-      <c r="A67" s="50"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="65" t="s">
+      <c r="A67" s="84"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="66"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
@@ -2938,23 +2954,23 @@
         <v>5</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="34"/>
+      <c r="H67" s="101"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" ht="19.05" customHeight="1">
-      <c r="A68" s="48">
+      <c r="A68" s="82">
         <v>5</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="66"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="3" t="s">
         <v>28</v>
       </c>
@@ -2962,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="32" t="s">
+      <c r="H68" s="99" t="s">
         <v>75</v>
       </c>
       <c r="I68" s="11"/>
@@ -2971,12 +2987,12 @@
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12" ht="22.05" customHeight="1">
-      <c r="A69" s="49"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="89"/>
       <c r="C69" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="66"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="3" t="s">
         <v>28</v>
       </c>
@@ -2984,19 +3000,19 @@
         <v>5</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="33"/>
+      <c r="H69" s="100"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12" ht="21" customHeight="1">
-      <c r="A70" s="49"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="65" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="66"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="3" t="s">
         <v>28</v>
       </c>
@@ -3004,19 +3020,19 @@
         <v>30</v>
       </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="33"/>
+      <c r="H70" s="100"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12" ht="21" customHeight="1">
-      <c r="A71" s="49"/>
-      <c r="B71" s="55"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="66"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="3" t="s">
         <v>28</v>
       </c>
@@ -3024,19 +3040,19 @@
         <v>30</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="33"/>
+      <c r="H71" s="100"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" ht="21" customHeight="1">
-      <c r="A72" s="49"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="65"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="46"/>
       <c r="E72" s="3" t="s">
         <v>28</v>
       </c>
@@ -3044,19 +3060,19 @@
         <v>5</v>
       </c>
       <c r="G72" s="7"/>
-      <c r="H72" s="33"/>
+      <c r="H72" s="100"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="65" t="s">
+      <c r="A73" s="83"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="65"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="3" t="s">
         <v>28</v>
       </c>
@@ -3064,19 +3080,19 @@
         <v>15</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="33"/>
+      <c r="H73" s="100"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12" ht="21" customHeight="1">
-      <c r="A74" s="49"/>
-      <c r="B74" s="55"/>
+      <c r="A74" s="83"/>
+      <c r="B74" s="89"/>
       <c r="C74" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="65"/>
+        <v>113</v>
+      </c>
+      <c r="D74" s="46"/>
       <c r="E74" s="3" t="s">
         <v>28</v>
       </c>
@@ -3084,19 +3100,19 @@
         <v>30</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="33"/>
+      <c r="H74" s="100"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
     </row>
     <row r="75" spans="1:12" ht="21" customHeight="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="55"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="89"/>
       <c r="C75" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="65"/>
+        <v>114</v>
+      </c>
+      <c r="D75" s="46"/>
       <c r="E75" s="3" t="s">
         <v>28</v>
       </c>
@@ -3104,19 +3120,19 @@
         <v>30</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="33"/>
+      <c r="H75" s="100"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:12" ht="21" customHeight="1">
-      <c r="A76" s="50"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="65" t="s">
+      <c r="A76" s="84"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="65"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="3" t="s">
         <v>28</v>
       </c>
@@ -3124,23 +3140,23 @@
         <v>5</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="H76" s="34"/>
+      <c r="H76" s="101"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
     </row>
     <row r="77" spans="1:12" ht="21" customHeight="1">
-      <c r="A77" s="48">
+      <c r="A77" s="82">
         <v>6</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="66"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="3" t="s">
         <v>28</v>
       </c>
@@ -3148,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="7"/>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="99" t="s">
         <v>82</v>
       </c>
       <c r="I77" s="11"/>
@@ -3157,12 +3173,12 @@
       <c r="L77" s="11"/>
     </row>
     <row r="78" spans="1:12" ht="21" customHeight="1">
-      <c r="A78" s="49"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="65" t="s">
+      <c r="A78" s="83"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="66"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="3" t="s">
         <v>28</v>
       </c>
@@ -3170,19 +3186,19 @@
         <v>10</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="33"/>
+      <c r="H78" s="100"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
     </row>
     <row r="79" spans="1:12" ht="21" customHeight="1">
-      <c r="A79" s="49"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="66"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="57"/>
       <c r="E79" s="3" t="s">
         <v>28</v>
       </c>
@@ -3190,19 +3206,19 @@
         <v>20</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="33"/>
+      <c r="H79" s="100"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
     </row>
     <row r="80" spans="1:12" ht="21" customHeight="1">
-      <c r="A80" s="49"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="72" t="s">
+      <c r="A80" s="83"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="66"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="3" t="s">
         <v>28</v>
       </c>
@@ -3210,19 +3226,19 @@
         <v>25</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="33"/>
+      <c r="H80" s="100"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
     </row>
     <row r="81" spans="1:12" ht="21" customHeight="1">
-      <c r="A81" s="49"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="66"/>
+      <c r="A81" s="83"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="57"/>
       <c r="E81" s="3" t="s">
         <v>28</v>
       </c>
@@ -3230,19 +3246,19 @@
         <v>5</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="33"/>
+      <c r="H81" s="100"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
     </row>
     <row r="82" spans="1:12" ht="21" customHeight="1">
-      <c r="A82" s="49"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="62" t="s">
+      <c r="A82" s="83"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="63"/>
+      <c r="D82" s="60"/>
       <c r="E82" s="3" t="s">
         <v>28</v>
       </c>
@@ -3250,19 +3266,19 @@
         <v>10</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="33"/>
+      <c r="H82" s="100"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
     </row>
     <row r="83" spans="1:12" ht="21" customHeight="1">
-      <c r="A83" s="49"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="64" t="s">
+      <c r="A83" s="83"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="63"/>
+      <c r="D83" s="60"/>
       <c r="E83" s="3" t="s">
         <v>28</v>
       </c>
@@ -3270,19 +3286,19 @@
         <v>10</v>
       </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="33"/>
+      <c r="H83" s="100"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
     </row>
     <row r="84" spans="1:12" ht="21" customHeight="1">
-      <c r="A84" s="49"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="65" t="s">
+      <c r="A84" s="83"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="66"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="3" t="s">
         <v>28</v>
       </c>
@@ -3290,19 +3306,19 @@
         <v>35</v>
       </c>
       <c r="G84" s="7"/>
-      <c r="H84" s="33"/>
+      <c r="H84" s="100"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
     </row>
     <row r="85" spans="1:12" ht="21" customHeight="1">
-      <c r="A85" s="49"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="65" t="s">
+      <c r="A85" s="83"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="66"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="3" t="s">
         <v>28</v>
       </c>
@@ -3310,23 +3326,23 @@
         <v>5</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="33"/>
+      <c r="H85" s="100"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
     </row>
     <row r="86" spans="1:12" ht="21" customHeight="1">
-      <c r="A86" s="51">
+      <c r="A86" s="85">
         <v>7</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="66"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="3" t="s">
         <v>28</v>
       </c>
@@ -3334,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="16"/>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="96" t="s">
         <v>90</v>
       </c>
       <c r="I86" s="13"/>
@@ -3343,12 +3359,12 @@
       <c r="L86" s="11"/>
     </row>
     <row r="87" spans="1:12" ht="21" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="63" t="s">
+      <c r="A87" s="85"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="66"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="3" t="s">
         <v>28</v>
       </c>
@@ -3356,19 +3372,19 @@
         <v>15</v>
       </c>
       <c r="G87" s="16"/>
-      <c r="H87" s="35"/>
+      <c r="H87" s="96"/>
       <c r="I87" s="13"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
     </row>
     <row r="88" spans="1:12" ht="21" customHeight="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="63" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="65"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="3" t="s">
         <v>28</v>
       </c>
@@ -3376,19 +3392,19 @@
         <v>20</v>
       </c>
       <c r="G88" s="16"/>
-      <c r="H88" s="35"/>
+      <c r="H88" s="96"/>
       <c r="I88" s="13"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
     </row>
     <row r="89" spans="1:12" ht="21" customHeight="1">
-      <c r="A89" s="51"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="63" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="65"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="3" t="s">
         <v>28</v>
       </c>
@@ -3396,19 +3412,19 @@
         <v>20</v>
       </c>
       <c r="G89" s="16"/>
-      <c r="H89" s="35"/>
+      <c r="H89" s="96"/>
       <c r="I89" s="13"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
     </row>
     <row r="90" spans="1:12" ht="21" customHeight="1">
-      <c r="A90" s="51"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="68" t="s">
+      <c r="A90" s="85"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="69"/>
+      <c r="D90" s="80"/>
       <c r="E90" s="5" t="s">
         <v>28</v>
       </c>
@@ -3416,19 +3432,19 @@
         <v>5</v>
       </c>
       <c r="G90" s="19"/>
-      <c r="H90" s="35"/>
+      <c r="H90" s="96"/>
       <c r="I90" s="30"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
     <row r="91" spans="1:12" ht="21" customHeight="1">
-      <c r="A91" s="51"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="35" t="s">
+      <c r="A91" s="85"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="35"/>
+      <c r="D91" s="96"/>
       <c r="E91" s="20" t="s">
         <v>28</v>
       </c>
@@ -3436,19 +3452,19 @@
         <v>25</v>
       </c>
       <c r="G91" s="19"/>
-      <c r="H91" s="35"/>
+      <c r="H91" s="96"/>
       <c r="I91" s="30"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
     <row r="92" spans="1:12" ht="21" customHeight="1">
-      <c r="A92" s="51"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="35" t="s">
+      <c r="A92" s="85"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="35"/>
+      <c r="D92" s="96"/>
       <c r="E92" s="20" t="s">
         <v>28</v>
       </c>
@@ -3456,19 +3472,19 @@
         <v>30</v>
       </c>
       <c r="G92" s="19"/>
-      <c r="H92" s="35"/>
+      <c r="H92" s="96"/>
       <c r="I92" s="30"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
     <row r="93" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A93" s="51"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="60" t="s">
+      <c r="A93" s="85"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="61"/>
+      <c r="D93" s="98"/>
       <c r="E93" s="20" t="s">
         <v>28</v>
       </c>
@@ -3476,15 +3492,15 @@
         <v>5</v>
       </c>
       <c r="G93" s="22"/>
-      <c r="H93" s="35"/>
+      <c r="H93" s="96"/>
     </row>
     <row r="94" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A94" s="51"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="38" t="s">
+      <c r="A94" s="85"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="38"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="20" t="s">
         <v>28</v>
       </c>
@@ -3492,15 +3508,15 @@
         <v>20</v>
       </c>
       <c r="G94" s="22"/>
-      <c r="H94" s="35"/>
+      <c r="H94" s="96"/>
     </row>
     <row r="95" spans="1:12" ht="19.05" customHeight="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="38" t="s">
+      <c r="A95" s="85"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D95" s="38"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="20" t="s">
         <v>28</v>
       </c>
@@ -3508,15 +3524,15 @@
         <v>35</v>
       </c>
       <c r="G95" s="22"/>
-      <c r="H95" s="35"/>
+      <c r="H95" s="96"/>
     </row>
     <row r="96" spans="1:12" ht="19.05" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="38" t="s">
+      <c r="A96" s="85"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="38"/>
+      <c r="D96" s="94"/>
       <c r="E96" s="20" t="s">
         <v>28</v>
       </c>
@@ -3524,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="G96" s="22"/>
-      <c r="H96" s="35"/>
+      <c r="H96" s="96"/>
     </row>
     <row r="97" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A97" s="52">
+      <c r="A97" s="86">
         <v>8</v>
       </c>
-      <c r="B97" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="38"/>
+      <c r="B97" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="94"/>
       <c r="E97" s="20" t="s">
         <v>28</v>
       </c>
@@ -3544,17 +3560,17 @@
         <v>5</v>
       </c>
       <c r="G97" s="22"/>
-      <c r="H97" s="36" t="s">
+      <c r="H97" s="102" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A98" s="52"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="40"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="75"/>
       <c r="E98" s="20" t="s">
         <v>28</v>
       </c>
@@ -3562,15 +3578,15 @@
         <v>30</v>
       </c>
       <c r="G98" s="22"/>
-      <c r="H98" s="36"/>
+      <c r="H98" s="102"/>
     </row>
     <row r="99" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A99" s="52"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" s="42"/>
+      <c r="A99" s="86"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="77"/>
       <c r="E99" s="20" t="s">
         <v>28</v>
       </c>
@@ -3578,15 +3594,15 @@
         <v>15</v>
       </c>
       <c r="G99" s="22"/>
-      <c r="H99" s="36"/>
+      <c r="H99" s="102"/>
     </row>
     <row r="100" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A100" s="52"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="42"/>
+      <c r="A100" s="86"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="77"/>
       <c r="E100" s="20" t="s">
         <v>28</v>
       </c>
@@ -3594,15 +3610,15 @@
         <v>10</v>
       </c>
       <c r="G100" s="22"/>
-      <c r="H100" s="36"/>
+      <c r="H100" s="102"/>
     </row>
     <row r="101" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A101" s="52"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="38"/>
+      <c r="A101" s="86"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="94"/>
       <c r="E101" s="20" t="s">
         <v>28</v>
       </c>
@@ -3610,15 +3626,15 @@
         <v>5</v>
       </c>
       <c r="G101" s="22"/>
-      <c r="H101" s="36"/>
+      <c r="H101" s="102"/>
     </row>
     <row r="102" spans="1:8" ht="18" customHeight="1">
-      <c r="A102" s="52"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D102" s="38"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="94"/>
       <c r="E102" s="20" t="s">
         <v>28</v>
       </c>
@@ -3626,51 +3642,43 @@
         <v>25</v>
       </c>
       <c r="G102" s="22"/>
-      <c r="H102" s="36"/>
+      <c r="H102" s="102"/>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1">
-      <c r="A103" s="52"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F103" s="21">
+      <c r="A103" s="86"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="108"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="102"/>
+    </row>
+    <row r="104" spans="1:8" ht="18" customHeight="1">
+      <c r="A104" s="86"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="94"/>
+      <c r="E104" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="21">
         <v>30</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="36"/>
-    </row>
-    <row r="104" spans="1:8" ht="18" customHeight="1">
-      <c r="A104" s="52"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="38" t="s">
+      <c r="G104" s="22"/>
+      <c r="H104" s="102"/>
+    </row>
+    <row r="105" spans="1:8" ht="18" customHeight="1">
+      <c r="A105" s="86"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F104" s="21">
-        <v>5</v>
-      </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="36"/>
-    </row>
-    <row r="105" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A105" s="53">
-        <v>9</v>
-      </c>
-      <c r="B105" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="38"/>
+      <c r="D105" s="94"/>
       <c r="E105" s="20" t="s">
         <v>28</v>
       </c>
@@ -3678,81 +3686,81 @@
         <v>5</v>
       </c>
       <c r="G105" s="22"/>
-      <c r="H105" s="37" t="s">
-        <v>125</v>
-      </c>
+      <c r="H105" s="102"/>
     </row>
     <row r="106" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A106" s="53"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="38"/>
+      <c r="A106" s="87">
+        <v>9</v>
+      </c>
+      <c r="B106" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="94"/>
       <c r="E106" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="21">
+        <v>5</v>
+      </c>
+      <c r="G106" s="22"/>
+      <c r="H106" s="103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.95" customHeight="1">
+      <c r="A107" s="87"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="94"/>
+      <c r="E107" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="21">
         <v>10</v>
       </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="36"/>
-    </row>
-    <row r="107" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A107" s="53"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="21">
+      <c r="G107" s="22"/>
+      <c r="H107" s="102"/>
+    </row>
+    <row r="108" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A108" s="87"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="94"/>
+      <c r="E108" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="21">
         <v>30</v>
       </c>
-      <c r="G107" s="22"/>
-      <c r="H107" s="36"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.95" customHeight="1">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" s="21">
-        <v>15</v>
-      </c>
       <c r="G108" s="22"/>
-      <c r="H108" s="36"/>
+      <c r="H108" s="102"/>
     </row>
     <row r="109" spans="1:8" ht="19.05" customHeight="1">
-      <c r="A109" s="53"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="43" t="s">
+      <c r="A109" s="87"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="108"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="102"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.95" customHeight="1">
+      <c r="A110" s="87"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="D109" s="44"/>
-      <c r="E109" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" s="21">
-        <v>5</v>
-      </c>
-      <c r="G109" s="22"/>
-      <c r="H109" s="36"/>
-    </row>
-    <row r="110" spans="1:8" ht="18" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D110" s="38"/>
+      <c r="D110" s="94"/>
       <c r="E110" s="20" t="s">
         <v>28</v>
       </c>
@@ -3760,95 +3768,95 @@
         <v>15</v>
       </c>
       <c r="G110" s="22"/>
-      <c r="H110" s="36"/>
-    </row>
-    <row r="111" spans="1:8" ht="18" customHeight="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="38"/>
+      <c r="H110" s="102"/>
+    </row>
+    <row r="111" spans="1:8" ht="19.05" customHeight="1">
+      <c r="A111" s="87"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="104"/>
       <c r="E111" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F111" s="21">
+        <v>5</v>
+      </c>
+      <c r="G111" s="22"/>
+      <c r="H111" s="102"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" customHeight="1">
+      <c r="A112" s="87"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="94"/>
+      <c r="E112" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="21">
+        <v>15</v>
+      </c>
+      <c r="G112" s="22"/>
+      <c r="H112" s="102"/>
+    </row>
+    <row r="113" spans="1:8" ht="18" customHeight="1">
+      <c r="A113" s="87"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="94"/>
+      <c r="E113" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="21">
         <v>30</v>
       </c>
-      <c r="G111" s="22"/>
-      <c r="H111" s="36"/>
-    </row>
-    <row r="112" spans="1:8" ht="18" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="39" t="s">
+      <c r="G113" s="22"/>
+      <c r="H113" s="102"/>
+    </row>
+    <row r="114" spans="1:8" ht="18" customHeight="1">
+      <c r="A114" s="87"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="75"/>
+      <c r="E114" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="21">
+        <v>5</v>
+      </c>
+      <c r="G114" s="22"/>
+      <c r="H114" s="102"/>
+    </row>
+    <row r="115" spans="1:8" ht="18" customHeight="1">
+      <c r="A115" s="87"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D112" s="40"/>
-      <c r="E112" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="21">
-        <v>5</v>
-      </c>
-      <c r="G112" s="22"/>
-      <c r="H112" s="36"/>
-    </row>
-    <row r="113" spans="1:8" ht="18" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" s="21">
+      <c r="D115" s="77"/>
+      <c r="E115" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="21">
         <v>10</v>
       </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="36"/>
-    </row>
-    <row r="114" spans="1:8" ht="18" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="42"/>
-      <c r="E114" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="21">
-        <v>10</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="36"/>
-    </row>
-    <row r="115" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="38"/>
-      <c r="E115" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="21">
-        <v>30</v>
-      </c>
       <c r="G115" s="22"/>
-      <c r="H115" s="36"/>
+      <c r="H115" s="102"/>
     </row>
     <row r="116" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="46" t="s">
+      <c r="A116" s="87"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="46"/>
+      <c r="D116" s="106"/>
       <c r="E116" s="24" t="s">
         <v>28</v>
       </c>
@@ -3856,19 +3864,19 @@
         <v>5</v>
       </c>
       <c r="G116" s="22"/>
-      <c r="H116" s="36"/>
+      <c r="H116" s="102"/>
     </row>
     <row r="117" spans="1:8" ht="19.95" customHeight="1">
       <c r="A117" s="26">
         <v>10</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="42"/>
+        <v>102</v>
+      </c>
+      <c r="C117" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="77"/>
       <c r="E117" s="6" t="s">
         <v>28</v>
       </c>
@@ -3877,7 +3885,7 @@
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="31" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="37.950000000000003" customHeight="1">
@@ -3888,13 +3896,146 @@
       <c r="E118" s="22"/>
       <c r="F118" s="29">
         <f>SUM(F15:F117)</f>
-        <v>1425</v>
+        <v>1385</v>
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="H40:H53"/>
+    <mergeCell ref="H54:H67"/>
+    <mergeCell ref="H68:H76"/>
+    <mergeCell ref="H77:H85"/>
+    <mergeCell ref="H86:H96"/>
+    <mergeCell ref="H97:H105"/>
+    <mergeCell ref="H106:H116"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A40:A53"/>
+    <mergeCell ref="A54:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="A106:A116"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="B86:B96"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="B106:B116"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="B18:B39"/>
     <mergeCell ref="H18:H39"/>
     <mergeCell ref="A18:A39"/>
@@ -3919,139 +4060,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="A54:A67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="B86:B96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="H40:H53"/>
-    <mergeCell ref="H54:H67"/>
-    <mergeCell ref="H68:H76"/>
-    <mergeCell ref="H77:H85"/>
-    <mergeCell ref="H86:H96"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="H105:H116"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
